--- a/Testdokumente/Systemtest/systemtest.xlsx
+++ b/Testdokumente/Systemtest/systemtest.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasia\Documents\projekt\Documentation\Testdokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobin/Desktop/HS-Offenburg/Projekt 2/Documentation/Testdokumente/Systemtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267995C5-199E-E948-B13E-D61EA1CA1EE2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16215"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="126">
   <si>
     <t>Nr.</t>
   </si>
@@ -402,12 +403,15 @@
   </si>
   <si>
     <t>Bürgermeisterwahl aus Liste der verfügbaren Wahlen auswählen -&gt; Button "Stimme ungültig machen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
+  </si>
+  <si>
+    <t>Tatsächliches Ergebnis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -444,7 +448,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -471,7 +475,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -749,24 +753,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="37.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="37.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="1" customWidth="1"/>
-    <col min="4" max="4" width="79.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="80.42578125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="37.85546875" style="1"/>
+    <col min="4" max="4" width="79.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="80.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="37.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -800,7 +807,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -817,7 +824,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -834,7 +841,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -851,7 +858,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -868,7 +875,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -885,7 +892,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -902,7 +909,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -919,7 +926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -936,7 +943,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -953,7 +960,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -970,7 +977,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -987,7 +994,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1004,7 +1011,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -1021,7 +1028,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -1038,7 +1045,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>16</v>
       </c>
@@ -1055,7 +1062,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>17</v>
       </c>
@@ -1072,7 +1079,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>19</v>
       </c>
@@ -1089,7 +1096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -1106,7 +1113,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -1123,7 +1130,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -1140,7 +1147,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>23</v>
       </c>
@@ -1157,7 +1164,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>24</v>
       </c>
@@ -1174,7 +1181,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>25</v>
       </c>
@@ -1191,7 +1198,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>26</v>
       </c>
@@ -1208,7 +1215,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>27</v>
       </c>
@@ -1225,7 +1232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>28</v>
       </c>
@@ -1242,7 +1249,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>29</v>
       </c>
@@ -1259,7 +1266,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>30</v>
       </c>
@@ -1276,7 +1283,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>31</v>
       </c>
@@ -1293,7 +1300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>32</v>
       </c>
@@ -1310,7 +1317,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>33</v>
       </c>
@@ -1327,7 +1334,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>34</v>
       </c>
@@ -1344,7 +1351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>35</v>
       </c>
@@ -1361,7 +1368,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>36</v>
       </c>
@@ -1378,7 +1385,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>37</v>
       </c>
@@ -1395,7 +1402,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>38</v>
       </c>
@@ -1412,7 +1419,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>39</v>
       </c>
@@ -1429,7 +1436,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>40</v>
       </c>
@@ -1446,7 +1453,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>41</v>
       </c>
@@ -1463,7 +1470,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>42</v>
       </c>
@@ -1480,7 +1487,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43</v>
       </c>
@@ -1497,7 +1504,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44</v>
       </c>
@@ -1514,7 +1521,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>45</v>
       </c>
@@ -1531,7 +1538,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>46</v>
       </c>
@@ -1548,7 +1555,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>47</v>
       </c>
